--- a/Reporting_Mardi_Maxime_MARTIN.xlsx
+++ b/Reporting_Mardi_Maxime_MARTIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proma\Desktop\Projets\Campus Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F802E645-654F-41A8-A003-777C279F3DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226D998-DFB4-4D42-BFDD-0BF9B6B8A2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B616FD5-6FB9-40A8-97F0-E9E7E34504E1}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{8B616FD5-6FB9-40A8-97F0-E9E7E34504E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29325DF9-3EDE-47DA-B5BC-902BF5D5BADD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="B1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,11 +525,11 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -557,11 +557,11 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -587,10 +587,10 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
